--- a/2025_cann.xlsx
+++ b/2025_cann.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>排序</t>
   </si>
@@ -22,7 +22,7 @@
     <t>大模型对该话题的分类</t>
   </si>
   <si>
-    <t>算子适配错误</t>
+    <t>基础算子适配性缺陷</t>
   </si>
   <si>
     <t>话题描述</t>
@@ -55,7 +55,97 @@
     <t>https://gitee.com/ascend/cann-ops/issues/IC8ITQ</t>
   </si>
   <si>
-    <t>模型输入问题</t>
+    <t>运行时资源管理缺陷</t>
+  </si>
+  <si>
+    <t>开发者在昇腾310P3 NPU部署LLM时遇到显存固定占用98MB导致数据加载卡死的问题</t>
+  </si>
+  <si>
+    <t>任何张量加载到NPU都会只占用98Mb（很奇怪的一个数字）然后卡住</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0237183630703446231-1-1.html</t>
+  </si>
+  <si>
+    <t>数据加载到NPU卡住</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/samples/issues/ICALGE</t>
+  </si>
+  <si>
+    <t>运行时环境配置异常</t>
+  </si>
+  <si>
+    <t>昇腾CANN开发者在无root权限下调用单算子API时报ERROR 561103，需排查环境变量和显存限制</t>
+  </si>
+  <si>
+    <t>根据CANN社区版8.0.0.alpha001的文档调用单算子API，编译成功，但是运行报错：aclnnAddGetWorkspaceSize failed. ERROR: 561103</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-02108183654631289220-1-1.html</t>
+  </si>
+  <si>
+    <t>使用aclnnMatmul的时候报错：aclnnMatmulGetWorkspaceSize failed. ERROR: 561103</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-02108183029427616162-1-1.html</t>
+  </si>
+  <si>
+    <t>模型部署兼容性问题</t>
+  </si>
+  <si>
+    <t>昇腾CANN开发者亟需确认不同soc版本模型部署兼容性及OM转换错误码分析</t>
+  </si>
+  <si>
+    <t>om推理报错</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-02113175152884692058-1-1.html</t>
+  </si>
+  <si>
+    <t>【Atlas 200I DK A2】onnx转om失败</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0255182415578200087-1-1.html</t>
+  </si>
+  <si>
+    <t>版本兼容性管理问题</t>
+  </si>
+  <si>
+    <t>昇腾CANN开发者需确认CANN组件/驱动/固件与依赖的版本兼容性</t>
+  </si>
+  <si>
+    <t>版本报错</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0292180172684622045-1-1.html</t>
+  </si>
+  <si>
+    <t>在运行run.sh时出现报错</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0236177061362063063-1-1.html</t>
+  </si>
+  <si>
+    <t>安装环境冲突</t>
+  </si>
+  <si>
+    <t>昇腾CANN开发者如何处理多版本卸载残留导致的安装路径冲突</t>
+  </si>
+  <si>
+    <t>安装 Ascend-cann-toolkit_8.1.RC1_linux-aarch64.run 失败</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0237183196156024184-1-1.html</t>
+  </si>
+  <si>
+    <t>Atlas800I A2安装CANN报错：opp_uninstall.sh不存在</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0226183785107239008-1-1.html</t>
+  </si>
+  <si>
+    <t>模型参数匹配问题</t>
   </si>
   <si>
     <t>昇腾CANN开发者需确认SenseVoice模型离线转换后输入数据shape是否符合预期</t>
@@ -73,43 +163,22 @@
     <t>https://www.hiascend.com/forum/thread-02108173814998442274-1-1.html</t>
   </si>
   <si>
-    <t>模型兼容性问题</t>
-  </si>
-  <si>
-    <t>昇腾CANN开发者亟需确认不同soc版本模型部署兼容性及OM转换错误码分析</t>
-  </si>
-  <si>
-    <t>om推理报错</t>
-  </si>
-  <si>
-    <t>https://www.hiascend.com/forum/thread-02113175152884692058-1-1.html</t>
-  </si>
-  <si>
-    <t>【Atlas 200I DK A2】onnx转om失败</t>
-  </si>
-  <si>
-    <t>https://www.hiascend.com/forum/thread-0255182415578200087-1-1.html</t>
-  </si>
-  <si>
-    <t>版本兼容性问题</t>
-  </si>
-  <si>
-    <t>昇腾CANN开发者需确认CANN组件/驱动/固件与依赖的版本兼容性</t>
-  </si>
-  <si>
-    <t>版本报错</t>
-  </si>
-  <si>
-    <t>https://www.hiascend.com/forum/thread-0292180172684622045-1-1.html</t>
-  </si>
-  <si>
-    <t>在运行run.sh时出现报错</t>
-  </si>
-  <si>
-    <t>https://www.hiascend.com/forum/thread-0236177061362063063-1-1.html</t>
-  </si>
-  <si>
-    <t>开发工具支持</t>
+    <t>模型转换后精度问题</t>
+  </si>
+  <si>
+    <t>开发者需解决YOLOv7在ATC转换OM后高宽比失衡场景的检测异常</t>
+  </si>
+  <si>
+    <t>yolov7转换得到的om模型对高宽比大于1.5左右的图片识别结果错误</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/samples/issues/IC9L4Q</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0237183096692632168-1-1.html</t>
+  </si>
+  <si>
+    <t>开发工具链功能限制</t>
   </si>
   <si>
     <t>昇腾CANN开发者在使用msOpGen生成复杂算子原型时遇类型数量不一致及属性类型不支持报错</t>
@@ -127,7 +196,7 @@
     <t>https://www.hiascend.com/forum/thread-02102181354769801037-1-1.html</t>
   </si>
   <si>
-    <t>算子性能优化</t>
+    <t>算子性能优化问题</t>
   </si>
   <si>
     <t>昇腾CANN开发者如何通过算子分片和内存优化提升特定输入维度下的cube利用率至50+</t>
@@ -145,57 +214,6 @@
     <t>https://gitee.com/ascend/ascend-transformer-boost/issues/IC5ZXP</t>
   </si>
   <si>
-    <t>权限与环境配置</t>
-  </si>
-  <si>
-    <t>昇腾CANN开发者在无root权限下调用单算子API时报ERROR 561103，需排查环境变量和显存限制</t>
-  </si>
-  <si>
-    <t>根据CANN社区版8.0.0.alpha001的文档调用单算子API，编译成功，但是运行报错：aclnnAddGetWorkspaceSize failed. ERROR: 561103</t>
-  </si>
-  <si>
-    <t>https://www.hiascend.com/forum/thread-02108183654631289220-1-1.html</t>
-  </si>
-  <si>
-    <t>使用aclnnMatmul的时候报错：aclnnMatmulGetWorkspaceSize failed. ERROR: 561103</t>
-  </si>
-  <si>
-    <t>https://www.hiascend.com/forum/thread-02108183029427616162-1-1.html</t>
-  </si>
-  <si>
-    <t>模型后处理错误</t>
-  </si>
-  <si>
-    <t>开发者需解决YOLOv7在ATC转换OM后高宽比失衡场景的检测异常</t>
-  </si>
-  <si>
-    <t>yolov7转换得到的om模型对高宽比大于1.5左右的图片识别结果错误</t>
-  </si>
-  <si>
-    <t>https://gitee.com/ascend/samples/issues/IC9L4Q</t>
-  </si>
-  <si>
-    <t>https://www.hiascend.com/forum/thread-0237183096692632168-1-1.html</t>
-  </si>
-  <si>
-    <t>安装问题</t>
-  </si>
-  <si>
-    <t>昇腾CANN开发者如何处理多版本卸载残留导致的安装路径冲突</t>
-  </si>
-  <si>
-    <t>安装 Ascend-cann-toolkit_8.1.RC1_linux-aarch64.run 失败</t>
-  </si>
-  <si>
-    <t>https://www.hiascend.com/forum/thread-0237183196156024184-1-1.html</t>
-  </si>
-  <si>
-    <t>Atlas800I A2安装CANN报错：opp_uninstall.sh不存在</t>
-  </si>
-  <si>
-    <t>https://www.hiascend.com/forum/thread-0226183785107239008-1-1.html</t>
-  </si>
-  <si>
     <t>昇腾CANN开发者解决Atlas 200I DK A2上scasum/sscal算子内存密集和高维shape泛化性不足的问题</t>
   </si>
   <si>
@@ -212,21 +230,6 @@
   </si>
   <si>
     <t>https://gitee.com/ascend/cann-ops/issues/IC8IQV</t>
-  </si>
-  <si>
-    <t>开发者在昇腾310P3 NPU部署LLM时遇到显存固定占用98MB导致数据加载卡死的问题</t>
-  </si>
-  <si>
-    <t>任何张量加载到NPU都会只占用98Mb（很奇怪的一个数字）然后卡住</t>
-  </si>
-  <si>
-    <t>https://www.hiascend.com/forum/thread-0237183630703446231-1-1.html</t>
-  </si>
-  <si>
-    <t>数据加载到NPU卡住</t>
-  </si>
-  <si>
-    <t>https://gitee.com/ascend/samples/issues/ICALGE</t>
   </si>
 </sst>
 </file>
@@ -1042,7 +1045,7 @@
         <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67">
@@ -1050,7 +1053,7 @@
         <v>3</v>
       </c>
       <c r="B67" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68">
@@ -1063,10 +1066,10 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C69" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70">
@@ -1074,52 +1077,52 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C70" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s">
-        <v>6</v>
-      </c>
-      <c r="B71" t="s">
-        <v>63</v>
-      </c>
-      <c r="C71" t="s">
-        <v>65</v>
-      </c>
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
     </row>
     <row r="72">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="B73" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>3</v>
-      </c>
-      <c r="B75" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B76" t="s">
+        <v>67</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="77">
@@ -1127,10 +1130,10 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C77" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78">
@@ -1141,7 +1144,7 @@
         <v>69</v>
       </c>
       <c r="C78" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="79">

--- a/2025_cann.xlsx
+++ b/2025_cann.xlsx
@@ -22,21 +22,36 @@
     <t>大模型对该话题的分类</t>
   </si>
   <si>
-    <t>基础算子适配性缺陷</t>
+    <t>模型部署问题</t>
   </si>
   <si>
     <t>话题描述</t>
   </si>
   <si>
+    <t>开发者需解决YOLOv7在ATC转换OM后高宽比失衡场景的检测异常</t>
+  </si>
+  <si>
+    <t>相关讨论源（title&amp;url）</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>yolov7转换得到的om模型对高宽比大于1.5左右的图片识别结果错误</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/samples/issues/IC9L4Q</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0237183096692632168-1-1.html</t>
+  </si>
+  <si>
+    <t>算子适配问题</t>
+  </si>
+  <si>
     <t>昇腾CANN开发者如何排查算子适配中的用例异常及内存溢出</t>
   </si>
   <si>
-    <t>相关讨论源（title&amp;url）</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t xml:space="preserve">[Bug-Report|缺陷反馈]: isamax算子在香橙派 Ascend310b 大部分样例结果错误 </t>
   </si>
   <si>
@@ -55,7 +70,43 @@
     <t>https://gitee.com/ascend/cann-ops/issues/IC8ITQ</t>
   </si>
   <si>
-    <t>运行时资源管理缺陷</t>
+    <t>运行时权限与环境配置问题</t>
+  </si>
+  <si>
+    <t>昇腾CANN开发者在无root权限下调用单算子API时报ERROR 561103，需排查环境变量和显存限制</t>
+  </si>
+  <si>
+    <t>根据CANN社区版8.0.0.alpha001的文档调用单算子API，编译成功，但是运行报错：aclnnAddGetWorkspaceSize failed. ERROR: 561103</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-02108183654631289220-1-1.html</t>
+  </si>
+  <si>
+    <t>使用aclnnMatmul的时候报错：aclnnMatmulGetWorkspaceSize failed. ERROR: 561103</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-02108183029427616162-1-1.html</t>
+  </si>
+  <si>
+    <t>模型转换与部署兼容性</t>
+  </si>
+  <si>
+    <t>昇腾CANN开发者亟需确认不同soc版本模型部署兼容性及OM转换错误码分析</t>
+  </si>
+  <si>
+    <t>om推理报错</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-02113175152884692058-1-1.html</t>
+  </si>
+  <si>
+    <t>【Atlas 200I DK A2】onnx转om失败</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0255182415578200087-1-1.html</t>
+  </si>
+  <si>
+    <t>资源管理缺陷</t>
   </si>
   <si>
     <t>开发者在昇腾310P3 NPU部署LLM时遇到显存固定占用98MB导致数据加载卡死的问题</t>
@@ -73,43 +124,25 @@
     <t>https://gitee.com/ascend/samples/issues/ICALGE</t>
   </si>
   <si>
-    <t>运行时环境配置异常</t>
-  </si>
-  <si>
-    <t>昇腾CANN开发者在无root权限下调用单算子API时报ERROR 561103，需排查环境变量和显存限制</t>
-  </si>
-  <si>
-    <t>根据CANN社区版8.0.0.alpha001的文档调用单算子API，编译成功，但是运行报错：aclnnAddGetWorkspaceSize failed. ERROR: 561103</t>
-  </si>
-  <si>
-    <t>https://www.hiascend.com/forum/thread-02108183654631289220-1-1.html</t>
-  </si>
-  <si>
-    <t>使用aclnnMatmul的时候报错：aclnnMatmulGetWorkspaceSize failed. ERROR: 561103</t>
-  </si>
-  <si>
-    <t>https://www.hiascend.com/forum/thread-02108183029427616162-1-1.html</t>
-  </si>
-  <si>
-    <t>模型部署兼容性问题</t>
-  </si>
-  <si>
-    <t>昇腾CANN开发者亟需确认不同soc版本模型部署兼容性及OM转换错误码分析</t>
-  </si>
-  <si>
-    <t>om推理报错</t>
-  </si>
-  <si>
-    <t>https://www.hiascend.com/forum/thread-02113175152884692058-1-1.html</t>
-  </si>
-  <si>
-    <t>【Atlas 200I DK A2】onnx转om失败</t>
-  </si>
-  <si>
-    <t>https://www.hiascend.com/forum/thread-0255182415578200087-1-1.html</t>
-  </si>
-  <si>
-    <t>版本兼容性管理问题</t>
+    <t>安装路径配置问题</t>
+  </si>
+  <si>
+    <t>昇腾CANN开发者如何处理多版本卸载残留导致的安装路径冲突</t>
+  </si>
+  <si>
+    <t>安装 Ascend-cann-toolkit_8.1.RC1_linux-aarch64.run 失败</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0237183196156024184-1-1.html</t>
+  </si>
+  <si>
+    <t>Atlas800I A2安装CANN报错：opp_uninstall.sh不存在</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0226183785107239008-1-1.html</t>
+  </si>
+  <si>
+    <t>版本兼容性缺陷</t>
   </si>
   <si>
     <t>昇腾CANN开发者需确认CANN组件/驱动/固件与依赖的版本兼容性</t>
@@ -127,25 +160,7 @@
     <t>https://www.hiascend.com/forum/thread-0236177061362063063-1-1.html</t>
   </si>
   <si>
-    <t>安装环境冲突</t>
-  </si>
-  <si>
-    <t>昇腾CANN开发者如何处理多版本卸载残留导致的安装路径冲突</t>
-  </si>
-  <si>
-    <t>安装 Ascend-cann-toolkit_8.1.RC1_linux-aarch64.run 失败</t>
-  </si>
-  <si>
-    <t>https://www.hiascend.com/forum/thread-0237183196156024184-1-1.html</t>
-  </si>
-  <si>
-    <t>Atlas800I A2安装CANN报错：opp_uninstall.sh不存在</t>
-  </si>
-  <si>
-    <t>https://www.hiascend.com/forum/thread-0226183785107239008-1-1.html</t>
-  </si>
-  <si>
-    <t>模型参数匹配问题</t>
+    <t>模型输入格式适配问题</t>
   </si>
   <si>
     <t>昇腾CANN开发者需确认SenseVoice模型离线转换后输入数据shape是否符合预期</t>
@@ -163,22 +178,25 @@
     <t>https://www.hiascend.com/forum/thread-02108173814998442274-1-1.html</t>
   </si>
   <si>
-    <t>模型转换后精度问题</t>
-  </si>
-  <si>
-    <t>开发者需解决YOLOv7在ATC转换OM后高宽比失衡场景的检测异常</t>
-  </si>
-  <si>
-    <t>yolov7转换得到的om模型对高宽比大于1.5左右的图片识别结果错误</t>
-  </si>
-  <si>
-    <t>https://gitee.com/ascend/samples/issues/IC9L4Q</t>
-  </si>
-  <si>
-    <t>https://www.hiascend.com/forum/thread-0237183096692632168-1-1.html</t>
-  </si>
-  <si>
-    <t>开发工具链功能限制</t>
+    <t>算子性能优化手段不足</t>
+  </si>
+  <si>
+    <t>昇腾CANN开发者如何通过算子分片和内存优化提升特定输入维度下的cube利用率至50+</t>
+  </si>
+  <si>
+    <t>优化 PpMatmulEinSumKernel 算子性能</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/ascend-transformer-boost/issues/IC5ZY1</t>
+  </si>
+  <si>
+    <t>优化 PagedMultiLatentAttentionCombineCacheMaskNdKernel 算子 性能</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/ascend-transformer-boost/issues/IC5ZXP</t>
+  </si>
+  <si>
+    <t>算子开发工具链缺陷</t>
   </si>
   <si>
     <t>昇腾CANN开发者在使用msOpGen生成复杂算子原型时遇类型数量不一致及属性类型不支持报错</t>
@@ -194,24 +212,6 @@
   </si>
   <si>
     <t>https://www.hiascend.com/forum/thread-02102181354769801037-1-1.html</t>
-  </si>
-  <si>
-    <t>算子性能优化问题</t>
-  </si>
-  <si>
-    <t>昇腾CANN开发者如何通过算子分片和内存优化提升特定输入维度下的cube利用率至50+</t>
-  </si>
-  <si>
-    <t>优化 PpMatmulEinSumKernel 算子性能</t>
-  </si>
-  <si>
-    <t>https://gitee.com/ascend/ascend-transformer-boost/issues/IC5ZY1</t>
-  </si>
-  <si>
-    <t>优化 PagedMultiLatentAttentionCombineCacheMaskNdKernel 算子 性能</t>
-  </si>
-  <si>
-    <t>https://gitee.com/ascend/ascend-transformer-boost/issues/IC5ZXP</t>
   </si>
   <si>
     <t>昇腾CANN开发者解决Atlas 200I DK A2上scasum/sscal算子内存密集和高维shape泛化性不足的问题</t>
@@ -589,52 +589,52 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -642,10 +642,10 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
         <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="14">
@@ -653,10 +653,10 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
         <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -674,7 +674,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -682,7 +682,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
@@ -695,10 +695,10 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
         <v>21</v>
-      </c>
-      <c r="C20" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="21">
@@ -706,10 +706,10 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
         <v>23</v>
-      </c>
-      <c r="C21" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="22">
@@ -727,7 +727,7 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25">
@@ -735,7 +735,7 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26">
@@ -748,10 +748,10 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
         <v>27</v>
-      </c>
-      <c r="C27" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="28">
@@ -759,10 +759,10 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
         <v>29</v>
-      </c>
-      <c r="C28" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="29">
@@ -780,7 +780,7 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
@@ -788,7 +788,7 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33">
@@ -801,10 +801,10 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
         <v>33</v>
-      </c>
-      <c r="C34" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="35">
@@ -812,10 +812,10 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
         <v>35</v>
-      </c>
-      <c r="C35" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="36">
@@ -833,7 +833,7 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39">
@@ -841,7 +841,7 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40">
@@ -854,10 +854,10 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" t="s">
         <v>39</v>
-      </c>
-      <c r="C41" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="42">
@@ -865,10 +865,10 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" t="s">
         <v>41</v>
-      </c>
-      <c r="C42" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="43">
@@ -886,7 +886,7 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46">
@@ -894,7 +894,7 @@
         <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47">
@@ -907,10 +907,10 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" t="s">
         <v>45</v>
-      </c>
-      <c r="C48" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="49">
@@ -918,10 +918,10 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" t="s">
         <v>47</v>
-      </c>
-      <c r="C49" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="50">
@@ -939,7 +939,7 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54">
@@ -960,10 +960,10 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" t="s">
         <v>51</v>
-      </c>
-      <c r="C55" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="56">
@@ -971,7 +971,7 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C56" t="s">
         <v>53</v>
